--- a/excel test1.xlsx
+++ b/excel test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB0C1E2-B894-42F3-9283-B507B5ABB290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D92F3-4A36-44DF-8A62-2073F5164AD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81B364EC-3CE5-46B0-B5F2-84A3266C63F5}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>Hotel C Feb 2021</t>
   </si>
   <si>
-    <t>Hotel D  Dec 2019</t>
-  </si>
-  <si>
     <t>Hotel E Dec 2019</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Hotel C Jan 2019</t>
   </si>
   <si>
-    <t>Hotel D  Jan 2019</t>
-  </si>
-  <si>
     <t>Hotel E Jan 2019</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
   </si>
   <si>
     <t>Hotel C Feb 2019</t>
-  </si>
-  <si>
-    <t>Hotel D  Feb 2019</t>
   </si>
   <si>
     <t>Hotel E Feb 2019</t>
@@ -444,9 +435,6 @@
     <t>Hotel C March 2019</t>
   </si>
   <si>
-    <t>Hotel D  March 2019</t>
-  </si>
-  <si>
     <t>Hotel E March 2019</t>
   </si>
   <si>
@@ -475,9 +463,6 @@
   </si>
   <si>
     <t>Hotel C April 2019</t>
-  </si>
-  <si>
-    <t>Hotel D  April 2019</t>
   </si>
   <si>
     <t>Hotel E April 2019</t>
@@ -522,9 +507,6 @@
     <t>Hotel C May 2019</t>
   </si>
   <si>
-    <t>Hotel D  May 2019</t>
-  </si>
-  <si>
     <t>Hotel E May 2019</t>
   </si>
   <si>
@@ -559,9 +541,6 @@
   </si>
   <si>
     <t>Hotel C June 2019</t>
-  </si>
-  <si>
-    <t>Hotel D  June 2019</t>
   </si>
   <si>
     <t>Hotel E June 2019</t>
@@ -600,9 +579,6 @@
     <t>Hotel C July 2019</t>
   </si>
   <si>
-    <t>Hotel D  July 2019</t>
-  </si>
-  <si>
     <t>Hotel E July 2019</t>
   </si>
   <si>
@@ -637,9 +613,6 @@
   </si>
   <si>
     <t>Hotel C August 2019</t>
-  </si>
-  <si>
-    <t>Hotel D  August 2019</t>
   </si>
   <si>
     <t>Hotel E August 2019</t>
@@ -678,9 +651,6 @@
     <t>Hotel C Sept 2019</t>
   </si>
   <si>
-    <t>Hotel D  Sept 2019</t>
-  </si>
-  <si>
     <t>Hotel E Sept 2019</t>
   </si>
   <si>
@@ -715,9 +685,6 @@
   </si>
   <si>
     <t>Hotel C Oct 2019</t>
-  </si>
-  <si>
-    <t>Hotel D  Oct 2019</t>
   </si>
   <si>
     <t>Hotel E Oct 2019</t>
@@ -756,9 +723,6 @@
     <t>Hotel C Nov 2019</t>
   </si>
   <si>
-    <t>Hotel D  Nov 2019</t>
-  </si>
-  <si>
     <t>Hotel E Nov 2019</t>
   </si>
   <si>
@@ -783,12 +747,6 @@
     <t>Hotel L Nov 2019</t>
   </si>
   <si>
-    <t>Hotel D  Jan 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  Feb 2020</t>
-  </si>
-  <si>
     <t>Consolidated March 2020</t>
   </si>
   <si>
@@ -799,9 +757,6 @@
   </si>
   <si>
     <t>Hotel C March 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  March 2020</t>
   </si>
   <si>
     <t>Hotel E March 2020</t>
@@ -840,9 +795,6 @@
     <t>Hotel C April 2020</t>
   </si>
   <si>
-    <t>Hotel D  April 2020</t>
-  </si>
-  <si>
     <t>Hotel E April 2020</t>
   </si>
   <si>
@@ -877,9 +829,6 @@
   </si>
   <si>
     <t>Hotel C May 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  May 2020</t>
   </si>
   <si>
     <t>Hotel E May 2020</t>
@@ -918,9 +867,6 @@
     <t>Hotel C June 2020</t>
   </si>
   <si>
-    <t>Hotel D  June 2020</t>
-  </si>
-  <si>
     <t>Hotel E June 2020</t>
   </si>
   <si>
@@ -955,9 +901,6 @@
   </si>
   <si>
     <t>Hotel C July 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  July 2020</t>
   </si>
   <si>
     <t>Hotel E July 2020</t>
@@ -996,9 +939,6 @@
     <t>Hotel C August 2020</t>
   </si>
   <si>
-    <t>Hotel D  August 2020</t>
-  </si>
-  <si>
     <t>Hotel E August 2020</t>
   </si>
   <si>
@@ -1033,9 +973,6 @@
   </si>
   <si>
     <t>Hotel C Sept 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  Sept 2020</t>
   </si>
   <si>
     <t>Hotel E Sept 2020</t>
@@ -1074,9 +1011,6 @@
     <t>Hotel C Oct 2020</t>
   </si>
   <si>
-    <t>Hotel D  Oct 2020</t>
-  </si>
-  <si>
     <t>Hotel E Oct 2020</t>
   </si>
   <si>
@@ -1113,9 +1047,6 @@
     <t>Hotel C Nov 2020</t>
   </si>
   <si>
-    <t>Hotel D  Nov 2020</t>
-  </si>
-  <si>
     <t>Hotel E Nov 2020</t>
   </si>
   <si>
@@ -1140,15 +1071,6 @@
     <t>Hotel L Nov 2020</t>
   </si>
   <si>
-    <t>Hotel D  Dec 2020</t>
-  </si>
-  <si>
-    <t>Hotel D  Jan 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  Feb 2021</t>
-  </si>
-  <si>
     <t>Consolidated March 2021</t>
   </si>
   <si>
@@ -1159,9 +1081,6 @@
   </si>
   <si>
     <t>Hotel C March 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  March 2021</t>
   </si>
   <si>
     <t>Hotel E March 2021</t>
@@ -1200,9 +1119,6 @@
     <t>Hotel C April 2021</t>
   </si>
   <si>
-    <t>Hotel D  April 2021</t>
-  </si>
-  <si>
     <t>Hotel E April 2021</t>
   </si>
   <si>
@@ -1237,9 +1153,6 @@
   </si>
   <si>
     <t>Hotel C May 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  May 2021</t>
   </si>
   <si>
     <t>Hotel E May 2021</t>
@@ -1278,9 +1191,6 @@
     <t>Hotel C June 2021</t>
   </si>
   <si>
-    <t>Hotel D  June 2021</t>
-  </si>
-  <si>
     <t>Hotel E June 2021</t>
   </si>
   <si>
@@ -1315,9 +1225,6 @@
   </si>
   <si>
     <t>Hotel C July 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  July 2021</t>
   </si>
   <si>
     <t>Hotel E July 2021</t>
@@ -1356,9 +1263,6 @@
     <t>Hotel C August 2021</t>
   </si>
   <si>
-    <t>Hotel D  August 2021</t>
-  </si>
-  <si>
     <t>Hotel E August 2021</t>
   </si>
   <si>
@@ -1393,9 +1297,6 @@
   </si>
   <si>
     <t>Hotel C Sept 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  Sept 2021</t>
   </si>
   <si>
     <t>Hotel E Sept 2021</t>
@@ -1434,9 +1335,6 @@
     <t>Hotel C Oct 2021</t>
   </si>
   <si>
-    <t>Hotel D  Oct 2021</t>
-  </si>
-  <si>
     <t>Hotel E Oct 2021</t>
   </si>
   <si>
@@ -1471,9 +1369,6 @@
   </si>
   <si>
     <t>Hotel C Nov 2021</t>
-  </si>
-  <si>
-    <t>Hotel D  Nov 2021</t>
   </si>
   <si>
     <t>Hotel E Nov 2021</t>
@@ -1512,9 +1407,6 @@
     <t>Hotel C Dec 2021</t>
   </si>
   <si>
-    <t>Hotel D  Dec 2021</t>
-  </si>
-  <si>
     <t>Hotel E Dec 2021</t>
   </si>
   <si>
@@ -1537,6 +1429,114 @@
   </si>
   <si>
     <t>Hotel L Dec 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Feb 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Jan 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Feb 2019</t>
+  </si>
+  <si>
+    <t>Hotel D March 2019</t>
+  </si>
+  <si>
+    <t>Hotel D April 2019</t>
+  </si>
+  <si>
+    <t>Hotel D May 2019</t>
+  </si>
+  <si>
+    <t>Hotel D June 2019</t>
+  </si>
+  <si>
+    <t>Hotel D July 2019</t>
+  </si>
+  <si>
+    <t>Hotel D August 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Sept 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Oct 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Nov 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Dec 2019</t>
+  </si>
+  <si>
+    <t>Hotel D Jan 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Feb 2020</t>
+  </si>
+  <si>
+    <t>Hotel D March 2020</t>
+  </si>
+  <si>
+    <t>Hotel D April 2020</t>
+  </si>
+  <si>
+    <t>Hotel D May 2020</t>
+  </si>
+  <si>
+    <t>Hotel D June 2020</t>
+  </si>
+  <si>
+    <t>Hotel D July 2020</t>
+  </si>
+  <si>
+    <t>Hotel D August 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Sept 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Oct 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Nov 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Dec 2020</t>
+  </si>
+  <si>
+    <t>Hotel D Jan 2021</t>
+  </si>
+  <si>
+    <t>Hotel D March 2021</t>
+  </si>
+  <si>
+    <t>Hotel D April 2021</t>
+  </si>
+  <si>
+    <t>Hotel D May 2021</t>
+  </si>
+  <si>
+    <t>Hotel D June 2021</t>
+  </si>
+  <si>
+    <t>Hotel D July 2021</t>
+  </si>
+  <si>
+    <t>Hotel D August 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Sept 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Oct 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Nov 2021</t>
+  </si>
+  <si>
+    <t>Hotel D Dec 2021</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAAF36E-737A-4F3E-8A77-D2E31A3315EC}">
   <dimension ref="A1:RY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="LS1" workbookViewId="0">
+      <selection activeCell="MA12" sqref="MA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,458 +2153,586 @@
     <col min="327" max="327" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="328" max="328" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="329" max="329" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="332" max="333" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="335" max="336" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="337" max="338" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="15" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="345" max="346" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="348" max="349" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="350" max="351" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="358" max="359" width="18" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="361" max="362" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="363" max="364" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="18" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="371" max="372" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="374" max="375" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="376" max="377" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="385" max="386" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="388" max="389" width="16" bestFit="1" customWidth="1"/>
+    <col min="390" max="391" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="399" max="400" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="402" max="403" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="404" max="405" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="16" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="16" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="413" max="414" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="416" max="417" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="418" max="419" width="16" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="427" max="428" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="430" max="431" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="432" max="433" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="22" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="441" max="442" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="17" bestFit="1" customWidth="1"/>
+    <col min="444" max="445" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="446" max="447" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="16" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="455" max="456" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="16" bestFit="1" customWidth="1"/>
+    <col min="458" max="459" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="460" max="461" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="15" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="469" max="470" width="16" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="472" max="473" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="474" max="475" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="16" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="483" max="484" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="486" max="487" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="488" max="489" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:493" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>117</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T1" t="s">
         <v>121</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>122</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>123</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>125</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>126</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>127</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG1" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP1" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>141</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>142</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT1" t="s">
         <v>143</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF1" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BG1" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH1" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>158</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BJ1" t="s">
         <v>159</v>
       </c>
-      <c r="BD1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>160</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>161</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BM1" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>163</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>164</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
         <v>165</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BQ1" t="s">
         <v>166</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BR1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS1" t="s">
         <v>167</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>168</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
+        <v>471</v>
+      </c>
+      <c r="BV1" t="s">
         <v>169</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BW1" t="s">
         <v>170</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BX1" t="s">
         <v>171</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>172</v>
       </c>
-      <c r="BR1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BZ1" t="s">
         <v>173</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CA1" t="s">
         <v>174</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CB1" t="s">
         <v>175</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CC1" t="s">
         <v>176</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CD1" t="s">
         <v>177</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CE1" t="s">
         <v>178</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CF1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG1" t="s">
         <v>179</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CH1" t="s">
         <v>180</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CI1" t="s">
+        <v>472</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>181</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CK1" t="s">
         <v>182</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CL1" t="s">
         <v>183</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CM1" t="s">
         <v>184</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CN1" t="s">
         <v>185</v>
       </c>
-      <c r="CF1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="CO1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CP1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CQ1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CR1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CS1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CT1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CU1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CV1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CW1" t="s">
+        <v>473</v>
+      </c>
+      <c r="CX1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CY1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CZ1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="DA1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DB1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DC1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CU1" t="s">
+      <c r="DD1" t="s">
         <v>199</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DE1" t="s">
         <v>200</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DF1" t="s">
         <v>201</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DG1" t="s">
         <v>202</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DH1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DI1" t="s">
         <v>203</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DJ1" t="s">
         <v>204</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DK1" t="s">
+        <v>474</v>
+      </c>
+      <c r="DL1" t="s">
         <v>205</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DM1" t="s">
         <v>206</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DN1" t="s">
         <v>207</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DO1" t="s">
         <v>208</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DP1" t="s">
         <v>209</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DQ1" t="s">
         <v>210</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DR1" t="s">
         <v>211</v>
       </c>
-      <c r="DH1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DI1" t="s">
+      <c r="DS1" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DT1" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DU1" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DV1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DW1" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DX1" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DY1" t="s">
+        <v>475</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="EA1" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="EB1" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="EC1" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="ED1" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EE1" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="EF1" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="EG1" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DW1" t="s">
+      <c r="EH1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EI1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EJ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EL1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EM1" t="s">
+        <v>476</v>
+      </c>
+      <c r="EN1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EO1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EP1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EQ1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="ER1" t="s">
         <v>233</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="ES1" t="s">
         <v>234</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="ET1" t="s">
         <v>235</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EU1" t="s">
         <v>236</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>237</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>239</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>240</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>241</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>242</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>244</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>245</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>246</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>247</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>248</v>
       </c>
       <c r="EV1" t="s">
         <v>0</v>
@@ -2613,7 +2741,7 @@
         <v>39</v>
       </c>
       <c r="EX1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="EY1" t="s">
         <v>45</v>
@@ -2622,31 +2750,31 @@
         <v>51</v>
       </c>
       <c r="FA1" t="s">
+        <v>477</v>
+      </c>
+      <c r="FB1" t="s">
         <v>57</v>
       </c>
-      <c r="FB1" t="s">
-        <v>58</v>
-      </c>
       <c r="FC1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="FD1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FE1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FF1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="FG1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="FH1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="FI1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="FJ1" t="s">
         <v>34</v>
@@ -2661,31 +2789,31 @@
         <v>52</v>
       </c>
       <c r="FN1" t="s">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="FO1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FP1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="FQ1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="FR1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="FS1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="FT1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="FU1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="FV1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="FW1" t="s">
         <v>35</v>
@@ -2700,403 +2828,403 @@
         <v>53</v>
       </c>
       <c r="GA1" t="s">
+        <v>479</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>95</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>101</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>238</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>239</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>480</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>245</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>246</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>247</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>248</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>249</v>
+      </c>
+      <c r="GX1" t="s">
         <v>250</v>
       </c>
-      <c r="GB1" t="s">
-        <v>60</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>66</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>84</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>90</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>96</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>102</v>
-      </c>
-      <c r="GJ1" t="s">
+      <c r="GY1" t="s">
         <v>251</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GZ1" t="s">
         <v>252</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="HA1" t="s">
+        <v>481</v>
+      </c>
+      <c r="HB1" t="s">
         <v>253</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>254</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="HD1" t="s">
         <v>255</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="HE1" t="s">
         <v>256</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="HF1" t="s">
         <v>257</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="HG1" t="s">
         <v>258</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="HH1" t="s">
         <v>259</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="HI1" t="s">
         <v>260</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="HJ1" t="s">
         <v>261</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="HK1" t="s">
         <v>262</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="HL1" t="s">
+        <v>250</v>
+      </c>
+      <c r="HM1" t="s">
         <v>263</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="HN1" t="s">
         <v>264</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="HO1" t="s">
+        <v>482</v>
+      </c>
+      <c r="HP1" t="s">
         <v>265</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="HQ1" t="s">
         <v>266</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HR1" t="s">
         <v>267</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HS1" t="s">
         <v>268</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HT1" t="s">
         <v>269</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HU1" t="s">
         <v>270</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HV1" t="s">
         <v>271</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HW1" t="s">
         <v>272</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HX1" t="s">
         <v>273</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HY1" t="s">
         <v>274</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HZ1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IA1" t="s">
         <v>275</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="IB1" t="s">
         <v>276</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="IC1" t="s">
+        <v>483</v>
+      </c>
+      <c r="ID1" t="s">
         <v>277</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="IE1" t="s">
         <v>278</v>
       </c>
-      <c r="HL1" t="s">
-        <v>265</v>
-      </c>
-      <c r="HM1" t="s">
+      <c r="IF1" t="s">
         <v>279</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="IG1" t="s">
         <v>280</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="IH1" t="s">
         <v>281</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="II1" t="s">
         <v>282</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="IJ1" t="s">
         <v>283</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="IK1" t="s">
         <v>284</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="IL1" t="s">
         <v>285</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="IM1" t="s">
         <v>286</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="IN1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IO1" t="s">
         <v>287</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="IP1" t="s">
         <v>288</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="IQ1" t="s">
+        <v>484</v>
+      </c>
+      <c r="IR1" t="s">
         <v>289</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="IS1" t="s">
         <v>290</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="IT1" t="s">
         <v>291</v>
       </c>
-      <c r="HZ1" t="s">
-        <v>265</v>
-      </c>
-      <c r="IA1" t="s">
+      <c r="IU1" t="s">
         <v>292</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IV1" t="s">
         <v>293</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="IW1" t="s">
         <v>294</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IX1" t="s">
         <v>295</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IY1" t="s">
         <v>296</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IZ1" t="s">
         <v>297</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="JA1" t="s">
         <v>298</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="JB1" t="s">
+        <v>250</v>
+      </c>
+      <c r="JC1" t="s">
         <v>299</v>
       </c>
-      <c r="II1" t="s">
+      <c r="JD1" t="s">
         <v>300</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="JE1" t="s">
+        <v>485</v>
+      </c>
+      <c r="JF1" t="s">
         <v>301</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="JG1" t="s">
         <v>302</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="JH1" t="s">
         <v>303</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="JI1" t="s">
         <v>304</v>
       </c>
-      <c r="IN1" t="s">
-        <v>265</v>
-      </c>
-      <c r="IO1" t="s">
+      <c r="JJ1" t="s">
         <v>305</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="JK1" t="s">
         <v>306</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="JL1" t="s">
         <v>307</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="JM1" t="s">
         <v>308</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="JN1" t="s">
         <v>309</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="JO1" t="s">
         <v>310</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="JP1" t="s">
+        <v>250</v>
+      </c>
+      <c r="JQ1" t="s">
         <v>311</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="JR1" t="s">
         <v>312</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="JS1" t="s">
+        <v>486</v>
+      </c>
+      <c r="JT1" t="s">
         <v>313</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="JU1" t="s">
         <v>314</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="JV1" t="s">
         <v>315</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JW1" t="s">
         <v>316</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JX1" t="s">
         <v>317</v>
       </c>
-      <c r="JB1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JC1" t="s">
+      <c r="JY1" t="s">
         <v>318</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JZ1" t="s">
         <v>319</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="KA1" t="s">
         <v>320</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="KB1" t="s">
         <v>321</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="KC1" t="s">
         <v>322</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="KD1" t="s">
+        <v>250</v>
+      </c>
+      <c r="KE1" t="s">
         <v>323</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="KF1" t="s">
         <v>324</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="KG1" t="s">
+        <v>487</v>
+      </c>
+      <c r="KH1" t="s">
         <v>325</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="KI1" t="s">
         <v>326</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="KJ1" t="s">
         <v>327</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="KK1" t="s">
         <v>328</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="KL1" t="s">
         <v>329</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="KM1" t="s">
         <v>330</v>
       </c>
-      <c r="JP1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JQ1" t="s">
+      <c r="KN1" t="s">
         <v>331</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="KO1" t="s">
         <v>332</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="KP1" t="s">
         <v>333</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="KQ1" t="s">
         <v>334</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="KR1" t="s">
+        <v>250</v>
+      </c>
+      <c r="KS1" t="s">
         <v>335</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="KT1" t="s">
         <v>336</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="KU1" t="s">
+        <v>488</v>
+      </c>
+      <c r="KV1" t="s">
         <v>337</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="KW1" t="s">
         <v>338</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="KX1" t="s">
         <v>339</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KY1" t="s">
         <v>340</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KZ1" t="s">
         <v>341</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="LA1" t="s">
         <v>342</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="LB1" t="s">
         <v>343</v>
       </c>
-      <c r="KD1" t="s">
-        <v>265</v>
-      </c>
-      <c r="KE1" t="s">
+      <c r="LC1" t="s">
         <v>344</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>345</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>346</v>
-      </c>
-      <c r="KH1" t="s">
-        <v>347</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>348</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>349</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>350</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>351</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>352</v>
-      </c>
-      <c r="KN1" t="s">
-        <v>353</v>
-      </c>
-      <c r="KO1" t="s">
-        <v>354</v>
-      </c>
-      <c r="KP1" t="s">
-        <v>355</v>
-      </c>
-      <c r="KQ1" t="s">
-        <v>356</v>
-      </c>
-      <c r="KR1" t="s">
-        <v>265</v>
-      </c>
-      <c r="KS1" t="s">
-        <v>357</v>
-      </c>
-      <c r="KT1" t="s">
-        <v>358</v>
-      </c>
-      <c r="KU1" t="s">
-        <v>359</v>
-      </c>
-      <c r="KV1" t="s">
-        <v>360</v>
-      </c>
-      <c r="KW1" t="s">
-        <v>361</v>
-      </c>
-      <c r="KX1" t="s">
-        <v>362</v>
-      </c>
-      <c r="KY1" t="s">
-        <v>363</v>
-      </c>
-      <c r="KZ1" t="s">
-        <v>364</v>
-      </c>
-      <c r="LA1" t="s">
-        <v>365</v>
-      </c>
-      <c r="LB1" t="s">
-        <v>366</v>
-      </c>
-      <c r="LC1" t="s">
-        <v>367</v>
       </c>
       <c r="LD1" t="s">
         <v>36</v>
@@ -3105,7 +3233,7 @@
         <v>42</v>
       </c>
       <c r="LF1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="LG1" t="s">
         <v>48</v>
@@ -3114,31 +3242,31 @@
         <v>54</v>
       </c>
       <c r="LI1" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="LJ1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="LK1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="LL1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="LM1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="LN1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="LO1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="LP1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="LQ1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="LR1" t="s">
         <v>37</v>
@@ -3153,31 +3281,31 @@
         <v>55</v>
       </c>
       <c r="LV1" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="LW1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="LX1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="LY1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="LZ1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="MA1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="MB1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="MC1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="MD1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="ME1" t="s">
         <v>38</v>
@@ -3192,445 +3320,445 @@
         <v>56</v>
       </c>
       <c r="MI1" t="s">
+        <v>465</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>74</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>80</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>86</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>98</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>347</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>491</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>352</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>353</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>354</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>355</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>356</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>357</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>358</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>359</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>360</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>492</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>361</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>365</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NS1" t="s">
         <v>370</v>
       </c>
-      <c r="MJ1" t="s">
-        <v>63</v>
-      </c>
-      <c r="MK1" t="s">
-        <v>69</v>
-      </c>
-      <c r="ML1" t="s">
-        <v>75</v>
-      </c>
-      <c r="MM1" t="s">
-        <v>81</v>
-      </c>
-      <c r="MN1" t="s">
-        <v>87</v>
-      </c>
-      <c r="MO1" t="s">
-        <v>93</v>
-      </c>
-      <c r="MP1" t="s">
-        <v>99</v>
-      </c>
-      <c r="MQ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="MR1" t="s">
+      <c r="NT1" t="s">
+        <v>358</v>
+      </c>
+      <c r="NU1" t="s">
         <v>371</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="NV1" t="s">
         <v>372</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="NW1" t="s">
+        <v>493</v>
+      </c>
+      <c r="NX1" t="s">
         <v>373</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="NY1" t="s">
         <v>374</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="NZ1" t="s">
         <v>375</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="OA1" t="s">
         <v>376</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="OB1" t="s">
         <v>377</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="OC1" t="s">
         <v>378</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="OD1" t="s">
         <v>379</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="OE1" t="s">
         <v>380</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="OF1" t="s">
         <v>381</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="OG1" t="s">
         <v>382</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="OH1" t="s">
+        <v>358</v>
+      </c>
+      <c r="OI1" t="s">
         <v>383</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="OJ1" t="s">
         <v>384</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="OK1" t="s">
+        <v>494</v>
+      </c>
+      <c r="OL1" t="s">
         <v>385</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="OM1" t="s">
         <v>386</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="ON1" t="s">
         <v>387</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="OO1" t="s">
         <v>388</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="OP1" t="s">
         <v>389</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="OQ1" t="s">
         <v>390</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="OR1" t="s">
         <v>391</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="OS1" t="s">
         <v>392</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="OT1" t="s">
         <v>393</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="OU1" t="s">
         <v>394</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="OV1" t="s">
+        <v>358</v>
+      </c>
+      <c r="OW1" t="s">
         <v>395</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="OX1" t="s">
         <v>396</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="OY1" t="s">
+        <v>495</v>
+      </c>
+      <c r="OZ1" t="s">
         <v>397</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="PA1" t="s">
         <v>398</v>
       </c>
-      <c r="NT1" t="s">
-        <v>385</v>
-      </c>
-      <c r="NU1" t="s">
+      <c r="PB1" t="s">
         <v>399</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="PC1" t="s">
         <v>400</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="PD1" t="s">
         <v>401</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="PE1" t="s">
         <v>402</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="PF1" t="s">
         <v>403</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="PG1" t="s">
         <v>404</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="PH1" t="s">
         <v>405</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="PI1" t="s">
         <v>406</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="PJ1" t="s">
+        <v>358</v>
+      </c>
+      <c r="PK1" t="s">
         <v>407</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="PL1" t="s">
         <v>408</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="PM1" t="s">
+        <v>496</v>
+      </c>
+      <c r="PN1" t="s">
         <v>409</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="PO1" t="s">
         <v>410</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="PP1" t="s">
         <v>411</v>
       </c>
-      <c r="OH1" t="s">
-        <v>385</v>
-      </c>
-      <c r="OI1" t="s">
+      <c r="PQ1" t="s">
         <v>412</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="PR1" t="s">
         <v>413</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="PS1" t="s">
         <v>414</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="PT1" t="s">
         <v>415</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="PU1" t="s">
         <v>416</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="PV1" t="s">
         <v>417</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="PW1" t="s">
         <v>418</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="PX1" t="s">
+        <v>358</v>
+      </c>
+      <c r="PY1" t="s">
         <v>419</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="PZ1" t="s">
         <v>420</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="QA1" t="s">
+        <v>497</v>
+      </c>
+      <c r="QB1" t="s">
         <v>421</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="QC1" t="s">
         <v>422</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="QD1" t="s">
         <v>423</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="QE1" t="s">
         <v>424</v>
       </c>
-      <c r="OV1" t="s">
-        <v>385</v>
-      </c>
-      <c r="OW1" t="s">
+      <c r="QF1" t="s">
         <v>425</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="QG1" t="s">
         <v>426</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="QH1" t="s">
         <v>427</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="QI1" t="s">
         <v>428</v>
       </c>
-      <c r="PA1" t="s">
+      <c r="QJ1" t="s">
         <v>429</v>
       </c>
-      <c r="PB1" t="s">
+      <c r="QK1" t="s">
         <v>430</v>
       </c>
-      <c r="PC1" t="s">
+      <c r="QL1" t="s">
+        <v>358</v>
+      </c>
+      <c r="QM1" t="s">
         <v>431</v>
       </c>
-      <c r="PD1" t="s">
+      <c r="QN1" t="s">
         <v>432</v>
       </c>
-      <c r="PE1" t="s">
+      <c r="QO1" t="s">
+        <v>498</v>
+      </c>
+      <c r="QP1" t="s">
         <v>433</v>
       </c>
-      <c r="PF1" t="s">
+      <c r="QQ1" t="s">
         <v>434</v>
       </c>
-      <c r="PG1" t="s">
+      <c r="QR1" t="s">
         <v>435</v>
       </c>
-      <c r="PH1" t="s">
+      <c r="QS1" t="s">
         <v>436</v>
       </c>
-      <c r="PI1" t="s">
+      <c r="QT1" t="s">
         <v>437</v>
       </c>
-      <c r="PJ1" t="s">
-        <v>385</v>
-      </c>
-      <c r="PK1" t="s">
+      <c r="QU1" t="s">
         <v>438</v>
       </c>
-      <c r="PL1" t="s">
+      <c r="QV1" t="s">
         <v>439</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="QW1" t="s">
         <v>440</v>
       </c>
-      <c r="PN1" t="s">
+      <c r="QX1" t="s">
         <v>441</v>
       </c>
-      <c r="PO1" t="s">
+      <c r="QY1" t="s">
         <v>442</v>
       </c>
-      <c r="PP1" t="s">
+      <c r="QZ1" t="s">
+        <v>358</v>
+      </c>
+      <c r="RA1" t="s">
         <v>443</v>
       </c>
-      <c r="PQ1" t="s">
+      <c r="RB1" t="s">
         <v>444</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="RC1" t="s">
+        <v>499</v>
+      </c>
+      <c r="RD1" t="s">
         <v>445</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="RE1" t="s">
         <v>446</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="RF1" t="s">
         <v>447</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="RG1" t="s">
         <v>448</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="RH1" t="s">
         <v>449</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="RI1" t="s">
         <v>450</v>
       </c>
-      <c r="PX1" t="s">
-        <v>385</v>
-      </c>
-      <c r="PY1" t="s">
+      <c r="RJ1" t="s">
         <v>451</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="RK1" t="s">
         <v>452</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="RL1" t="s">
         <v>453</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="RM1" t="s">
         <v>454</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="RN1" t="s">
+        <v>358</v>
+      </c>
+      <c r="RO1" t="s">
         <v>455</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="RP1" t="s">
         <v>456</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="RQ1" t="s">
+        <v>500</v>
+      </c>
+      <c r="RR1" t="s">
         <v>457</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="RS1" t="s">
         <v>458</v>
       </c>
-      <c r="QG1" t="s">
+      <c r="RT1" t="s">
         <v>459</v>
       </c>
-      <c r="QH1" t="s">
+      <c r="RU1" t="s">
         <v>460</v>
       </c>
-      <c r="QI1" t="s">
+      <c r="RV1" t="s">
         <v>461</v>
       </c>
-      <c r="QJ1" t="s">
+      <c r="RW1" t="s">
         <v>462</v>
       </c>
-      <c r="QK1" t="s">
+      <c r="RX1" t="s">
         <v>463</v>
       </c>
-      <c r="QL1" t="s">
-        <v>385</v>
-      </c>
-      <c r="QM1" t="s">
+      <c r="RY1" t="s">
         <v>464</v>
-      </c>
-      <c r="QN1" t="s">
-        <v>465</v>
-      </c>
-      <c r="QO1" t="s">
-        <v>466</v>
-      </c>
-      <c r="QP1" t="s">
-        <v>467</v>
-      </c>
-      <c r="QQ1" t="s">
-        <v>468</v>
-      </c>
-      <c r="QR1" t="s">
-        <v>469</v>
-      </c>
-      <c r="QS1" t="s">
-        <v>470</v>
-      </c>
-      <c r="QT1" t="s">
-        <v>471</v>
-      </c>
-      <c r="QU1" t="s">
-        <v>472</v>
-      </c>
-      <c r="QV1" t="s">
-        <v>473</v>
-      </c>
-      <c r="QW1" t="s">
-        <v>474</v>
-      </c>
-      <c r="QX1" t="s">
-        <v>475</v>
-      </c>
-      <c r="QY1" t="s">
-        <v>476</v>
-      </c>
-      <c r="QZ1" t="s">
-        <v>385</v>
-      </c>
-      <c r="RA1" t="s">
-        <v>477</v>
-      </c>
-      <c r="RB1" t="s">
-        <v>478</v>
-      </c>
-      <c r="RC1" t="s">
-        <v>479</v>
-      </c>
-      <c r="RD1" t="s">
-        <v>480</v>
-      </c>
-      <c r="RE1" t="s">
-        <v>481</v>
-      </c>
-      <c r="RF1" t="s">
-        <v>482</v>
-      </c>
-      <c r="RG1" t="s">
-        <v>483</v>
-      </c>
-      <c r="RH1" t="s">
-        <v>484</v>
-      </c>
-      <c r="RI1" t="s">
-        <v>485</v>
-      </c>
-      <c r="RJ1" t="s">
-        <v>486</v>
-      </c>
-      <c r="RK1" t="s">
-        <v>487</v>
-      </c>
-      <c r="RL1" t="s">
-        <v>488</v>
-      </c>
-      <c r="RM1" t="s">
-        <v>489</v>
-      </c>
-      <c r="RN1" t="s">
-        <v>385</v>
-      </c>
-      <c r="RO1" t="s">
-        <v>490</v>
-      </c>
-      <c r="RP1" t="s">
-        <v>491</v>
-      </c>
-      <c r="RQ1" t="s">
-        <v>492</v>
-      </c>
-      <c r="RR1" t="s">
-        <v>493</v>
-      </c>
-      <c r="RS1" t="s">
-        <v>494</v>
-      </c>
-      <c r="RT1" t="s">
-        <v>495</v>
-      </c>
-      <c r="RU1" t="s">
-        <v>496</v>
-      </c>
-      <c r="RV1" t="s">
-        <v>497</v>
-      </c>
-      <c r="RW1" t="s">
-        <v>498</v>
-      </c>
-      <c r="RX1" t="s">
-        <v>499</v>
-      </c>
-      <c r="RY1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:493" x14ac:dyDescent="0.25">
